--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r101_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -707,10 +719,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -754,28 +766,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -800,28 +812,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -909,10 +921,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -956,28 +968,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1002,28 +1014,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1082,10 +1094,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1129,28 +1141,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1175,28 +1187,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1255,10 +1267,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1302,28 +1314,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1348,28 +1360,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1457,10 +1469,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1504,28 +1516,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1550,28 +1562,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1861,10 +1873,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1908,28 +1920,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1954,28 +1966,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2063,10 +2075,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2110,28 +2122,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2156,28 +2168,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2236,10 +2248,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2283,28 +2295,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2329,28 +2341,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2409,10 +2421,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2456,28 +2468,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2502,28 +2514,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2582,10 +2594,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2629,28 +2641,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2675,28 +2687,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2784,10 +2796,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2831,28 +2843,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2877,28 +2889,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2957,10 +2969,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3004,28 +3016,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3050,28 +3062,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3130,10 +3142,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3177,28 +3189,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3223,28 +3235,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3303,10 +3315,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3350,28 +3362,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3396,28 +3408,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3476,10 +3488,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3523,28 +3535,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3569,28 +3581,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3649,10 +3661,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3696,28 +3708,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3742,28 +3754,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3851,10 +3863,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3898,28 +3910,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3944,28 +3956,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4053,10 +4065,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4100,28 +4112,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4146,28 +4158,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4255,10 +4267,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4302,28 +4314,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4348,28 +4360,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4457,10 +4469,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4504,28 +4516,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4550,28 +4562,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4630,10 +4642,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4677,28 +4689,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4723,28 +4735,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4861,10 +4873,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4908,28 +4920,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4954,28 +4966,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5034,10 +5046,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5127,28 +5139,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5207,10 +5219,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5254,28 +5266,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5300,28 +5312,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5380,10 +5392,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5427,28 +5439,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5473,28 +5485,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5582,10 +5594,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5629,28 +5641,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5675,28 +5687,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5755,10 +5767,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5802,28 +5814,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5848,28 +5860,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5957,10 +5969,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6004,28 +6016,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6050,28 +6062,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6130,10 +6142,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6177,28 +6189,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6223,28 +6235,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6303,10 +6315,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6350,28 +6362,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6396,28 +6408,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6476,10 +6488,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6523,28 +6535,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6569,28 +6581,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6649,10 +6661,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6696,28 +6708,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6742,28 +6754,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6851,10 +6863,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6898,28 +6910,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6944,28 +6956,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7024,10 +7036,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7071,28 +7083,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7117,28 +7129,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7226,10 +7238,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7273,28 +7285,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7319,28 +7331,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7399,10 +7411,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7446,28 +7458,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7492,28 +7504,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7601,10 +7613,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7648,28 +7660,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7694,28 +7706,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7774,10 +7786,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7821,28 +7833,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7867,28 +7879,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7976,10 +7988,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8023,28 +8035,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8069,28 +8081,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8149,10 +8161,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8196,28 +8208,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8242,28 +8254,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8322,10 +8334,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8369,28 +8381,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8415,28 +8427,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8495,10 +8507,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8542,28 +8554,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8588,28 +8600,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8668,10 +8680,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8715,28 +8727,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8761,28 +8773,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8841,10 +8853,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8888,28 +8900,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8934,28 +8946,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9014,10 +9026,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9061,28 +9073,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9107,28 +9119,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9187,10 +9199,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9234,28 +9246,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9280,28 +9292,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9389,10 +9401,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9436,28 +9448,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9482,28 +9494,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9562,10 +9574,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9609,28 +9621,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9655,28 +9667,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9735,10 +9747,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9782,28 +9794,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9828,28 +9840,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9908,10 +9920,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9955,28 +9967,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10001,28 +10013,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10081,10 +10093,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10128,28 +10140,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10174,28 +10186,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10254,10 +10266,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10301,28 +10313,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
+      <c r="A353" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="2">
+      <c r="C353" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10347,28 +10359,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="2">
+      <c r="C355" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="2">
+      <c r="D355" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="2">
+      <c r="I355" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10456,10 +10468,10 @@
       <c r="I358">
         <f>((C358-C357)^2+(D358- D357)^2)^.5</f>
       </c>
-      <c r="J358" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K358" s="2" t="s">
+      <c r="J358" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K358" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L358" t="n">
@@ -10503,28 +10515,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="s" s="2">
+      <c r="A360" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C360" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D360" t="s" s="2">
+      <c r="C360" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10549,28 +10561,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C362" t="s" s="2">
+      <c r="C362" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D362" t="s" s="2">
+      <c r="D362" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I362" t="s" s="2">
+      <c r="I362" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10658,10 +10670,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10705,28 +10717,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10751,28 +10763,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10860,10 +10872,10 @@
       <c r="I372">
         <f>((C372-C371)^2+(D372- D371)^2)^.5</f>
       </c>
-      <c r="J372" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K372" s="2" t="s">
+      <c r="J372" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K372" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L372" t="n">
@@ -10907,28 +10919,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="s" s="2">
+      <c r="A374" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B374" t="s" s="2">
+      <c r="B374" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C374" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D374" t="s" s="2">
+      <c r="C374" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E374" t="s" s="2">
+      <c r="E374" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F374" t="s" s="2">
+      <c r="F374" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G374" t="s" s="2">
+      <c r="G374" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H374" t="s" s="2">
+      <c r="H374" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10953,28 +10965,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C376" t="s" s="2">
+      <c r="C376" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D376" t="s" s="2">
+      <c r="D376" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I376" t="s" s="2">
+      <c r="I376" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11062,10 +11074,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="2" t="s">
+      <c r="J379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11109,28 +11121,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="A381" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="2">
+      <c r="C381" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11155,28 +11167,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="2">
+      <c r="C383" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="2">
+      <c r="D383" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="2">
+      <c r="I383" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11235,10 +11247,10 @@
       <c r="I385">
         <f>((C385-C384)^2+(D385- D384)^2)^.5</f>
       </c>
-      <c r="J385" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K385" s="2" t="s">
+      <c r="J385" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K385" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L385" t="n">
@@ -11282,28 +11294,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="s" s="2">
+      <c r="A387" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C387" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s" s="2">
+      <c r="C387" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11328,28 +11340,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C389" t="s" s="2">
+      <c r="C389" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D389" t="s" s="2">
+      <c r="D389" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I389" t="s" s="2">
+      <c r="I389" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11408,10 +11420,10 @@
       <c r="I391">
         <f>((C391-C390)^2+(D391- D390)^2)^.5</f>
       </c>
-      <c r="J391" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K391" s="2" t="s">
+      <c r="J391" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K391" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L391" t="n">
@@ -11455,28 +11467,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="s" s="2">
+      <c r="A393" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B393" t="s" s="2">
+      <c r="B393" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C393" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D393" t="s" s="2">
+      <c r="C393" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D393" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E393" t="s" s="2">
+      <c r="E393" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F393" t="s" s="2">
+      <c r="F393" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G393" t="s" s="2">
+      <c r="G393" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H393" t="s" s="2">
+      <c r="H393" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11501,28 +11513,28 @@
       </c>
     </row>
     <row r="395">
-      <c r="B395" t="s" s="2">
+      <c r="B395" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C395" t="s" s="2">
+      <c r="C395" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D395" t="s" s="2">
+      <c r="D395" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E395" t="s" s="2">
+      <c r="E395" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F395" t="s" s="2">
+      <c r="F395" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G395" t="s" s="2">
+      <c r="G395" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H395" t="s" s="2">
+      <c r="H395" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I395" t="s" s="2">
+      <c r="I395" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11639,10 +11651,10 @@
       <c r="I399">
         <f>((C399-C398)^2+(D399- D398)^2)^.5</f>
       </c>
-      <c r="J399" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K399" s="2" t="s">
+      <c r="J399" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K399" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L399" t="n">
@@ -11686,28 +11698,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="s" s="2">
+      <c r="A401" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B401" t="s" s="2">
+      <c r="B401" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C401" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D401" t="s" s="2">
+      <c r="C401" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D401" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E401" t="s" s="2">
+      <c r="E401" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F401" t="s" s="2">
+      <c r="F401" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G401" t="s" s="2">
+      <c r="G401" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H401" t="s" s="2">
+      <c r="H401" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11732,28 +11744,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="B403" t="s" s="2">
+      <c r="B403" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C403" t="s" s="2">
+      <c r="C403" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D403" t="s" s="2">
+      <c r="D403" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E403" t="s" s="2">
+      <c r="E403" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F403" t="s" s="2">
+      <c r="F403" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G403" t="s" s="2">
+      <c r="G403" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H403" t="s" s="2">
+      <c r="H403" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I403" t="s" s="2">
+      <c r="I403" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11812,10 +11824,10 @@
       <c r="I405">
         <f>((C405-C404)^2+(D405- D404)^2)^.5</f>
       </c>
-      <c r="J405" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K405" s="2" t="s">
+      <c r="J405" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K405" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L405" t="n">
@@ -11859,28 +11871,28 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="s" s="2">
+      <c r="A407" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B407" t="s" s="2">
+      <c r="B407" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C407" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D407" t="s" s="2">
+      <c r="C407" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E407" t="s" s="2">
+      <c r="E407" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F407" t="s" s="2">
+      <c r="F407" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G407" t="s" s="2">
+      <c r="G407" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H407" t="s" s="2">
+      <c r="H407" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11905,28 +11917,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="B409" t="s" s="2">
+      <c r="B409" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C409" t="s" s="2">
+      <c r="C409" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D409" t="s" s="2">
+      <c r="D409" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E409" t="s" s="2">
+      <c r="E409" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F409" t="s" s="2">
+      <c r="F409" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G409" t="s" s="2">
+      <c r="G409" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H409" t="s" s="2">
+      <c r="H409" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I409" t="s" s="2">
+      <c r="I409" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11985,10 +11997,10 @@
       <c r="I411">
         <f>((C411-C410)^2+(D411- D410)^2)^.5</f>
       </c>
-      <c r="J411" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K411" s="2" t="s">
+      <c r="J411" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K411" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L411" t="n">
@@ -12032,28 +12044,28 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="s" s="2">
+      <c r="A413" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B413" t="s" s="2">
+      <c r="B413" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C413" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D413" t="s" s="2">
+      <c r="C413" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D413" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E413" t="s" s="2">
+      <c r="E413" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F413" t="s" s="2">
+      <c r="F413" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G413" t="s" s="2">
+      <c r="G413" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H413" t="s" s="2">
+      <c r="H413" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12078,28 +12090,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="B415" t="s" s="2">
+      <c r="B415" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C415" t="s" s="2">
+      <c r="C415" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D415" t="s" s="2">
+      <c r="D415" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E415" t="s" s="2">
+      <c r="E415" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F415" t="s" s="2">
+      <c r="F415" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G415" t="s" s="2">
+      <c r="G415" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H415" t="s" s="2">
+      <c r="H415" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I415" t="s" s="2">
+      <c r="I415" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12187,10 +12199,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="2" t="s">
+      <c r="J418" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12234,28 +12246,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="2">
+      <c r="A420" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="2">
+      <c r="C420" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12280,28 +12292,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="2">
+      <c r="B422" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="2">
+      <c r="C422" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="2">
+      <c r="D422" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="2">
+      <c r="E422" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="2">
+      <c r="F422" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="2">
+      <c r="G422" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="2">
+      <c r="H422" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="2">
+      <c r="I422" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12360,10 +12372,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="2" t="s">
+      <c r="J424" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12407,28 +12419,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="2">
+      <c r="A426" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="2">
+      <c r="C426" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12453,28 +12465,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="2">
+      <c r="B428" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="2">
+      <c r="C428" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="2">
+      <c r="D428" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="2">
+      <c r="E428" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="2">
+      <c r="F428" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="2">
+      <c r="G428" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="2">
+      <c r="H428" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="2">
+      <c r="I428" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12562,10 +12574,10 @@
       <c r="I431">
         <f>((C431-C430)^2+(D431- D430)^2)^.5</f>
       </c>
-      <c r="J431" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K431" s="2" t="s">
+      <c r="J431" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K431" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L431" t="n">
@@ -12609,28 +12621,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="s" s="2">
+      <c r="A433" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B433" t="s" s="2">
+      <c r="B433" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C433" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D433" t="s" s="2">
+      <c r="C433" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D433" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E433" t="s" s="2">
+      <c r="E433" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F433" t="s" s="2">
+      <c r="F433" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G433" t="s" s="2">
+      <c r="G433" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H433" t="s" s="2">
+      <c r="H433" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12655,28 +12667,28 @@
       </c>
     </row>
     <row r="435">
-      <c r="B435" t="s" s="2">
+      <c r="B435" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C435" t="s" s="2">
+      <c r="C435" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D435" t="s" s="2">
+      <c r="D435" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E435" t="s" s="2">
+      <c r="E435" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F435" t="s" s="2">
+      <c r="F435" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G435" t="s" s="2">
+      <c r="G435" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H435" t="s" s="2">
+      <c r="H435" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I435" t="s" s="2">
+      <c r="I435" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12735,10 +12747,10 @@
       <c r="I437">
         <f>((C437-C436)^2+(D437- D436)^2)^.5</f>
       </c>
-      <c r="J437" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K437" s="2" t="s">
+      <c r="J437" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K437" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L437" t="n">
@@ -12782,28 +12794,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="2">
+      <c r="A439" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B439" t="s" s="2">
+      <c r="B439" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C439" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D439" t="s" s="2">
+      <c r="C439" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E439" t="s" s="2">
+      <c r="E439" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F439" t="s" s="2">
+      <c r="F439" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G439" t="s" s="2">
+      <c r="G439" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H439" t="s" s="2">
+      <c r="H439" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12828,28 +12840,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="B441" t="s" s="2">
+      <c r="B441" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C441" t="s" s="2">
+      <c r="C441" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D441" t="s" s="2">
+      <c r="D441" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E441" t="s" s="2">
+      <c r="E441" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F441" t="s" s="2">
+      <c r="F441" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G441" t="s" s="2">
+      <c r="G441" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H441" t="s" s="2">
+      <c r="H441" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I441" t="s" s="2">
+      <c r="I441" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12937,10 +12949,10 @@
       <c r="I444">
         <f>((C444-C443)^2+(D444- D443)^2)^.5</f>
       </c>
-      <c r="J444" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K444" s="2" t="s">
+      <c r="J444" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K444" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L444" t="n">
@@ -12984,28 +12996,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s" s="2">
+      <c r="A446" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B446" t="s" s="2">
+      <c r="B446" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C446" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D446" t="s" s="2">
+      <c r="C446" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D446" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E446" t="s" s="2">
+      <c r="E446" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F446" t="s" s="2">
+      <c r="F446" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G446" t="s" s="2">
+      <c r="G446" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H446" t="s" s="2">
+      <c r="H446" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13030,28 +13042,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="B448" t="s" s="2">
+      <c r="B448" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C448" t="s" s="2">
+      <c r="C448" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D448" t="s" s="2">
+      <c r="D448" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E448" t="s" s="2">
+      <c r="E448" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F448" t="s" s="2">
+      <c r="F448" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G448" t="s" s="2">
+      <c r="G448" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H448" t="s" s="2">
+      <c r="H448" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I448" t="s" s="2">
+      <c r="I448" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13110,10 +13122,10 @@
       <c r="I450">
         <f>((C450-C449)^2+(D450- D449)^2)^.5</f>
       </c>
-      <c r="J450" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K450" s="2" t="s">
+      <c r="J450" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K450" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L450" t="n">
@@ -13157,28 +13169,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="2">
+      <c r="A452" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B452" t="s" s="2">
+      <c r="B452" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C452" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D452" t="s" s="2">
+      <c r="C452" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E452" t="s" s="2">
+      <c r="E452" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F452" t="s" s="2">
+      <c r="F452" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G452" t="s" s="2">
+      <c r="G452" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H452" t="s" s="2">
+      <c r="H452" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13203,28 +13215,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="B454" t="s" s="2">
+      <c r="B454" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C454" t="s" s="2">
+      <c r="C454" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D454" t="s" s="2">
+      <c r="D454" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E454" t="s" s="2">
+      <c r="E454" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F454" t="s" s="2">
+      <c r="F454" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G454" t="s" s="2">
+      <c r="G454" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H454" t="s" s="2">
+      <c r="H454" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I454" t="s" s="2">
+      <c r="I454" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13283,10 +13295,10 @@
       <c r="I456">
         <f>((C456-C455)^2+(D456- D455)^2)^.5</f>
       </c>
-      <c r="J456" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K456" s="2" t="s">
+      <c r="J456" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K456" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L456" t="n">
